--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="5660" windowWidth="22680" windowHeight="19200" activeTab="2"/>
+    <workbookView xWindow="1080" yWindow="7540" windowWidth="22680" windowHeight="19200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName name="音乐商品">有效值!$N$373:$N$374</definedName>
     <definedName name="食品和饮料商品">有效值!$G$373:$G$375</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="867">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -2862,6 +2862,45 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>testlshubeauty</t>
+  </si>
+  <si>
+    <t>testlshubook</t>
+  </si>
+  <si>
+    <t>testlshuclothing</t>
+  </si>
+  <si>
+    <t>testlshuCE</t>
+  </si>
+  <si>
+    <t>testlshufoodbeverage</t>
+  </si>
+  <si>
+    <t>testlshuhealthcare</t>
+  </si>
+  <si>
+    <t>testlshuhome</t>
+  </si>
+  <si>
+    <t>testlshulargeappliance</t>
+  </si>
+  <si>
+    <t>testlshumusicalinstrument</t>
+  </si>
+  <si>
+    <t>testlshupetsupplies</t>
+  </si>
+  <si>
+    <t>testlshusport</t>
+  </si>
+  <si>
+    <t>testlshutoysbaby</t>
+  </si>
+  <si>
+    <t>testlshuwine</t>
   </si>
 </sst>
 </file>
@@ -3997,7 +4036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4902,7 +4941,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5407,7 +5446,9 @@
       <c r="A4" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>854</v>
+      </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
@@ -5462,7 +5503,9 @@
       <c r="A5" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>855</v>
+      </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
@@ -5517,7 +5560,9 @@
       <c r="A6" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>856</v>
+      </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
@@ -5572,7 +5617,9 @@
       <c r="A7" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>857</v>
+      </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
@@ -5627,7 +5674,9 @@
       <c r="A8" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>858</v>
+      </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
@@ -5682,7 +5731,9 @@
       <c r="A9" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>859</v>
+      </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
@@ -5737,7 +5788,9 @@
       <c r="A10" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>860</v>
+      </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
@@ -5792,7 +5845,9 @@
       <c r="A11" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>861</v>
+      </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
@@ -5847,7 +5902,9 @@
       <c r="A12" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>862</v>
+      </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
@@ -5902,7 +5959,9 @@
       <c r="A13" s="17" t="s">
         <v>801</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>863</v>
+      </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
@@ -5957,7 +6016,9 @@
       <c r="A14" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>864</v>
+      </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
@@ -6012,7 +6073,9 @@
       <c r="A15" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>865</v>
+      </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
@@ -6067,7 +6130,9 @@
       <c r="A16" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>866</v>
+      </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="7540" windowWidth="22680" windowHeight="19200" activeTab="2"/>
+    <workbookView xWindow="660" yWindow="3900" windowWidth="22680" windowHeight="19200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="871">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -2902,12 +2902,164 @@
   <si>
     <t>testlshuwine</t>
   </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <r>
+      <t>Burberry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>博柏利英伦迷情香水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30ml(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>避免用于眼睑和口唇周围。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如有轻微刺、痒感觉，产品内含物在作用所产生反应属正常反应。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香调：清新花果香调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前味：意大利莱姆、冰梨、青绿扁桃仁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中味：甜味杏仁糖、白色芍药</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后味：香草、顿加豆、琥珀、桃花心木</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2998,6 +3150,13 @@
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="24">
@@ -3300,7 +3459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3516,6 +3675,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4941,7 +5104,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5449,17 +5612,39 @@
       <c r="B4" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="C4" s="17">
+        <v>3386463021804</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>868</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>30</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>869</v>
+      </c>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
@@ -5510,9 +5695,15 @@
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -5567,9 +5758,15 @@
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
@@ -5624,9 +5821,15 @@
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -5681,9 +5884,15 @@
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -5738,9 +5947,15 @@
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -5795,9 +6010,15 @@
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -5852,9 +6073,15 @@
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -5909,9 +6136,15 @@
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -5966,9 +6199,15 @@
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="G13" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -6023,9 +6262,15 @@
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="G14" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -6080,9 +6325,15 @@
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="G15" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -6137,9 +6388,15 @@
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="G16" s="91" t="s">
+        <v>867</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3900" windowWidth="22680" windowHeight="19200" activeTab="2"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="22680" windowHeight="13080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="874">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3052,6 +3052,176 @@
         <charset val="134"/>
       </rPr>
       <t>后味：香草、顿加豆、琥珀、桃花心木</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小王子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精美典藏版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赠送独家定制别册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>天津人民出版社</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BURBERRY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巴宝莉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手提包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3741175 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米色格纹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
     </r>
   </si>
 </sst>
@@ -3459,7 +3629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3678,6 +3848,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5104,7 +5277,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5691,9 +5864,15 @@
       <c r="B5" s="18" t="s">
         <v>855</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="17">
+        <v>9787201077642</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>871</v>
+      </c>
       <c r="F5" s="18"/>
       <c r="G5" s="91" t="s">
         <v>867</v>
@@ -5736,7 +5915,9 @@
       <c r="AQ5" s="18"/>
       <c r="AR5" s="17"/>
       <c r="AS5" s="18"/>
-      <c r="AT5" s="17"/>
+      <c r="AT5" s="93" t="s">
+        <v>872</v>
+      </c>
       <c r="AV5" s="17"/>
       <c r="AW5" s="17"/>
       <c r="AX5" s="17"/>
@@ -5754,10 +5935,18 @@
       <c r="B6" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="17">
+        <v>5045334445122</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="G6" s="91" t="s">
         <v>867</v>
       </c>
@@ -5771,7 +5960,9 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="N6" s="18" t="s">
+        <v>741</v>
+      </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="22680" windowHeight="13080" activeTab="2"/>
+    <workbookView xWindow="1200" yWindow="1320" windowWidth="22680" windowHeight="13080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="876">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3223,6 +3223,54 @@
       </rPr>
       <t>@</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Apple iPad Air 2 MH182CH/A 9.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸平板电脑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (64G / WLAN / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>MH182CH/A</t>
   </si>
 </sst>
 </file>
@@ -3843,15 +3891,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4372,7 +4420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5277,7 +5325,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5353,16 +5401,16 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="93" t="s">
         <v>774</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="93" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="38" t="s">
@@ -5791,13 +5839,13 @@
       <c r="D4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="91" t="s">
         <v>868</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -5870,11 +5918,11 @@
       <c r="D5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="91" t="s">
         <v>871</v>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -5915,7 +5963,7 @@
       <c r="AQ5" s="18"/>
       <c r="AR5" s="17"/>
       <c r="AS5" s="18"/>
-      <c r="AT5" s="93" t="s">
+      <c r="AT5" s="92" t="s">
         <v>872</v>
       </c>
       <c r="AV5" s="17"/>
@@ -5941,13 +5989,13 @@
       <c r="D6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="91" t="s">
         <v>873</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -6008,11 +6056,19 @@
       <c r="B7" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="91" t="s">
+      <c r="C7" s="17">
+        <v>888462037037</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>874</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -6026,9 +6082,15 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>3</v>
+      </c>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
@@ -6075,7 +6137,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H8" s="18" t="s">
@@ -6138,7 +6200,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -6201,7 +6263,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H10" s="18" t="s">
@@ -6264,7 +6326,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -6327,7 +6389,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -6390,7 +6452,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -6453,7 +6515,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H14" s="18" t="s">
@@ -6516,7 +6578,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -6579,7 +6641,7 @@
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="90" t="s">
         <v>867</v>
       </c>
       <c r="H16" s="18" t="s">

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1320" windowWidth="22680" windowHeight="13080" activeTab="2"/>
+    <workbookView xWindow="1220" yWindow="1300" windowWidth="22680" windowHeight="13080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="877">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3271,6 +3271,48 @@
   </si>
   <si>
     <t>MH182CH/A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>桂格即食燕麦片超值装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1478g(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新旧包装更替，随机发货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5325,7 +5367,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6133,10 +6175,18 @@
       <c r="B8" s="18" t="s">
         <v>858</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="17">
+        <v>6924743914735</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>876</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>287</v>
+      </c>
       <c r="G8" s="90" t="s">
         <v>867</v>
       </c>
@@ -6155,11 +6205,21 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="S8" s="90" t="s">
+        <v>867</v>
+      </c>
+      <c r="T8" s="18">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="V8" s="90" t="s">
+        <v>505</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="878">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3302,6 +3302,51 @@
         <charset val="134"/>
       </rPr>
       <t>新旧包装更替，随机发货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Listerine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李施德林齿龈防护漱口水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250ml*2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特卖</t>
     </r>
     <r>
       <rPr>
@@ -5367,7 +5412,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6256,10 +6301,18 @@
       <c r="B9" s="18" t="s">
         <v>859</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="17">
+        <v>8850007811978</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>877</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>293</v>
+      </c>
       <c r="G9" s="90" t="s">
         <v>867</v>
       </c>
@@ -6283,11 +6336,21 @@
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
+      <c r="X9" s="18">
+        <v>500</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z9" s="90" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA9" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>0</v>
+      </c>
       <c r="AC9" s="18"/>
       <c r="AD9" s="18"/>
       <c r="AE9" s="18"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1300" windowWidth="22680" windowHeight="13080" activeTab="2"/>
+    <workbookView xWindow="1240" yWindow="1300" windowWidth="22680" windowHeight="13080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="879">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3347,6 +3347,151 @@
         <charset val="134"/>
       </rPr>
       <t>特卖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QINYUAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沁园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯水机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QR-R5-02A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厨房净水机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>膜过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除垢杀菌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储水桶将由厂家代发</t>
     </r>
     <r>
       <rPr>
@@ -5412,7 +5557,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6382,10 +6527,18 @@
       <c r="B10" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="17">
+        <v>6952799404184</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>878</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>305</v>
+      </c>
       <c r="G10" s="90" t="s">
         <v>867</v>
       </c>
@@ -6414,10 +6567,18 @@
       <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
+      <c r="AC10" s="90" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD10" s="90" t="s">
+        <v>867</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF10" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
       <c r="AI10" s="17"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="880">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3502,6 +3502,198 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BC-48D 48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单门冰箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白色水波纹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小冰箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公寓冷冻冷藏冰箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卓越性能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出口明星机型</t>
     </r>
   </si>
 </sst>
@@ -5557,7 +5749,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+      <selection activeCell="BD11" sqref="BD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6606,10 +6798,18 @@
       <c r="B11" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="17">
+        <v>6944553400488</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>879</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>341</v>
+      </c>
       <c r="G11" s="90" t="s">
         <v>867</v>
       </c>
@@ -6652,15 +6852,33 @@
       <c r="AR11" s="17"/>
       <c r="AS11" s="18"/>
       <c r="AT11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
+      <c r="AV11" s="92" t="s">
+        <v>867</v>
+      </c>
+      <c r="AW11" s="17">
+        <v>17.72</v>
+      </c>
+      <c r="AX11" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="AY11" s="17">
+        <v>17.72</v>
+      </c>
+      <c r="AZ11" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="BA11" s="17">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="BB11" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="BC11" s="17">
+        <v>30.86</v>
+      </c>
+      <c r="BD11" s="17" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="17" t="s">

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1300" windowWidth="22680" windowHeight="13080" activeTab="2"/>
+    <workbookView xWindow="900" yWindow="4980" windowWidth="22680" windowHeight="13080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="881">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3694,6 +3694,71 @@
         <charset val="134"/>
       </rPr>
       <t>出口明星机型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAMAHA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雅马哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民谣吉他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FG700MS(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原木色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -4101,7 +4166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4325,6 +4390,7 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5748,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD750"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BD11" sqref="BD11"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU12" sqref="AU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6762,8 +6828,8 @@
       <c r="AC10" s="90" t="s">
         <v>867</v>
       </c>
-      <c r="AD10" s="90" t="s">
-        <v>867</v>
+      <c r="AD10" s="90">
+        <v>0</v>
       </c>
       <c r="AE10" s="18" t="s">
         <v>103</v>
@@ -6887,10 +6953,18 @@
       <c r="B12" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="17">
+        <v>4957812307895</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>880</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>380</v>
+      </c>
       <c r="G12" s="90" t="s">
         <v>867</v>
       </c>
@@ -6933,6 +7007,9 @@
       <c r="AR12" s="17"/>
       <c r="AS12" s="18"/>
       <c r="AT12" s="17"/>
+      <c r="AU12" s="94" t="s">
+        <v>867</v>
+      </c>
       <c r="AV12" s="17"/>
       <c r="AW12" s="17"/>
       <c r="AX12" s="17"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="882">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3759,6 +3759,41 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whiskas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伟嘉成猫猫粮海洋鱼味</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（包装更新，随机发货）</t>
     </r>
   </si>
 </sst>
@@ -5814,8 +5849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU12" sqref="AU12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7027,10 +7062,18 @@
       <c r="B13" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="17">
+        <v>6914973700871</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>881</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>416</v>
+      </c>
       <c r="G13" s="90" t="s">
         <v>867</v>
       </c>
@@ -7069,7 +7112,12 @@
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="18"/>
-      <c r="AQ13" s="18"/>
+      <c r="AP13" t="s">
+        <v>741</v>
+      </c>
+      <c r="AQ13" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="AR13" s="17"/>
       <c r="AS13" s="18"/>
       <c r="AT13" s="17"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="4980" windowWidth="22680" windowHeight="13080" activeTab="2"/>
+    <workbookView xWindow="1260" yWindow="4300" windowWidth="22680" windowHeight="13080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="884">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -3794,6 +3794,276 @@
         <charset val="134"/>
       </rPr>
       <t>（包装更新，随机发货）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GARMIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>佳明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光学心率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动跑步手表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动户外智能手表（内置黑色替换表带一条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光学感应器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动监测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室内跑步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自定义进阶训练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兼容心率带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米防水）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Forerunner 225 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脉动红</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Karicare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可瑞康</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>段金装幼儿配方奶粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>900g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（新西兰原装进口）（特卖）</t>
     </r>
   </si>
 </sst>
@@ -5850,7 +6120,7 @@
   <dimension ref="A1:BD750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ19" sqref="AQ19"/>
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7138,10 +7408,18 @@
       <c r="B14" s="18" t="s">
         <v>864</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="17">
+        <v>753759147983</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>882</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>422</v>
+      </c>
       <c r="G14" s="90" t="s">
         <v>867</v>
       </c>
@@ -7174,8 +7452,12 @@
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
       <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
+      <c r="AG14" s="90" t="s">
+        <v>867</v>
+      </c>
+      <c r="AH14" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="AI14" s="17"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
@@ -7201,10 +7483,18 @@
       <c r="B15" s="18" t="s">
         <v>865</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="17">
+        <v>9418783003032</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>883</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>443</v>
+      </c>
       <c r="G15" s="90" t="s">
         <v>867</v>
       </c>
@@ -7239,10 +7529,18 @@
       <c r="AF15" s="18"/>
       <c r="AG15" s="18"/>
       <c r="AH15" s="18"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="18"/>
+      <c r="AI15" s="92" t="s">
+        <v>867</v>
+      </c>
+      <c r="AJ15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL15" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="17"/>
       <c r="AS15" s="18"/>

--- a/amytest.xlsx
+++ b/amytest.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="885">
   <si>
     <t>如何使用库存文件模板</t>
   </si>
@@ -4064,6 +4064,51 @@
         <charset val="134"/>
       </rPr>
       <t>（新西兰原装进口）（特卖）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Barons de Rothschild Collection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉菲传奇波尔多红葡萄酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>750mL(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法国进口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -6119,8 +6164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD750"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7562,10 +7607,18 @@
       <c r="B16" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="17">
+        <v>3296327541426</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>884</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>455</v>
+      </c>
       <c r="G16" s="90" t="s">
         <v>867</v>
       </c>
@@ -7604,6 +7657,15 @@
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="18"/>
+      <c r="AM16">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>737</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>87</v>
+      </c>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="17"/>
       <c r="AS16" s="18"/>
